--- a/public/downloads/template-zooms.xlsx
+++ b/public/downloads/template-zooms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\edwi\kemenag\admincasn2024\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09D7038-736C-466B-8F79-A1D41C05AD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E7FF8-658F-4FFA-8C73-0A164BF4D863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zooms" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>19301211300034840</t>
   </si>
@@ -65,13 +65,22 @@
   </si>
   <si>
     <t>PEWAWANCARA 2 (NIP)</t>
+  </si>
+  <si>
+    <t>PENGUJI PRAKTIK 3 (NIP)</t>
+  </si>
+  <si>
+    <t>PEWAWANCARA 3 (NIP)</t>
+  </si>
+  <si>
+    <t>SESI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -141,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +190,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -287,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,83 +446,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="11" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.06640625" customWidth="1"/>
+    <col min="12" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>85830361885</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>123456</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>85830361885</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>123456</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,32 +545,41 @@
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>85830361885</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>123456</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>85830361885</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>123456</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
@@ -558,37 +589,50 @@
       <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="H4" s="1"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="H5" s="1"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="H6" s="1"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="H7" s="1"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F865873E-089B-45B0-A868-A3E64C78BF92}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CB7E3CB5-5725-4BFB-9F04-11411B24754E}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{FF24A63C-77B1-46C3-8FBF-16DBC86DB72D}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{0CC54EF8-67D7-4568-9720-5E385184B42B}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F865873E-089B-45B0-A868-A3E64C78BF92}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{CB7E3CB5-5725-4BFB-9F04-11411B24754E}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{FF24A63C-77B1-46C3-8FBF-16DBC86DB72D}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{0CC54EF8-67D7-4568-9720-5E385184B42B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
